--- a/data/processed/variaveis_linear.xlsx
+++ b/data/processed/variaveis_linear.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coeficientes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variáveis Linear" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,297 +425,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variável</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Coeficiente</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>rendimento médio real habitual de todos os trabalhos(r$/mês)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.485424223410343</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>índice gini</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3753435107457112</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>taxa de formalização</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3169490273087048</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>rendimento-hora médio real habitual de todos os trabalhos(r$/hora)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1446922157609727</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>população na força de trabalho potencial</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1444997380991717</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>rendimento-hora médio real habitual do trabalho principal(r$/hora)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1202234965869368</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>taxa de analfabetismo</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.04808152789854292</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sem instrução ou fundamental incompleto</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03321194907852772</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>população desocupada</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.02986647110280554</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>população</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.02318194755767135</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>população subutilizada</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02121147656497743</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>taxa total mortalidade</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.01578771069428755</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>saneamento basico total(1 000 pessoas)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.008097181941464915</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ensino médio completo ou superior incompleto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.006667561523986721</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>número de beneficiários de plano de saúde</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.003155689261944688</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>taxa de participação</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.002362348616369232</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>proporção de pessoas com acesso simultâneo aos três serviços de saneamento básico(%)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.003910097155828072</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>nível de ocupação</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.005556390333914489</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>população ocupada em trabalhos formais</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.01786600240488877</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>população em idade de trabalhar</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.03998759540000532</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>população na força de trabalho</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.05830722232273353</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>população ocupada</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.06738377788827311</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>taxa de desocupação</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.1037108380073554</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>taxa composta de subutilização</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.115860947540044</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ensino fundamental completo ou médio incompleto</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1317320764505582</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ensino superior completo</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.2182448354926417</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -744,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02173492612776184</v>
+        <v>-0.02173492612776207</v>
       </c>
     </row>
     <row r="3">
@@ -764,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9857242586071046</v>
+        <v>0.9857242586071044</v>
       </c>
     </row>
     <row r="5">
@@ -774,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3095118358476509</v>
+        <v>0.3095118358476507</v>
       </c>
     </row>
     <row r="6">
@@ -784,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8604967084231201</v>
+        <v>0.8604967084231206</v>
       </c>
     </row>
     <row r="7">
@@ -794,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8854948093401984</v>
+        <v>0.885494809340199</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2009947235308775</v>
+        <v>0.2009947235308772</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02598003973217151</v>
+        <v>-0.0259800397321716</v>
       </c>
     </row>
     <row r="10">
